--- a/biology/Médecine/Auguste_Brindeau/Auguste_Brindeau.xlsx
+++ b/biology/Médecine/Auguste_Brindeau/Auguste_Brindeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Brindeau est un médecin gynécologue français né le 1er mai 1867 à Nantes et mort le 3 août 1955 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'Auguste Marie Brindeau, capitaine au long cours, et de Victorine Jeanne Letourneau, il suit sa scolarité au lycée de Nantes. S'orientant vers la médecine, il devient interne des Hôpitaux de Nantes en 1888 puis externe des Hôpitaux de Paris en 1891 et interne des Hôpitaux de Paris de 1892 à 1896. 
 Accoucheur des Hôpitaux en 1899, il est agrégé d'accouchements à la Faculté de médecine de Paris en 1904 et professeur de clinique obstétricale en 1920. 
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-Le Professeur Paul Bar, 1853-1945 (1946)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Professeur Paul Bar, 1853-1945 (1946)
 Professeur Jean Rhenter, 1882-1944 (1944)
 Les Opérations en obstétrique (1937)
 Alexandre Guéniot (1832-1935) (1935)
@@ -603,7 +622,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur
 Officier de l'ordre de Léopold
@@ -635,7 +656,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rue Docteur-Brindeau, à Nantes</t>
         </is>
